--- a/src/data/liste.xlsx
+++ b/src/data/liste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhan.baysal.IMAR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\imarPHS\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1530" windowWidth="28800" windowHeight="16950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="9758"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -714,19 +714,19 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="3.28515625" style="3"/>
+    <col min="2" max="2" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="3.265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -768,7 +768,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -782,7 +782,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -796,7 +796,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -810,7 +810,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -824,7 +824,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -838,7 +838,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -852,7 +852,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -866,7 +866,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -880,7 +880,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -894,7 +894,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -908,7 +908,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -922,7 +922,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -936,7 +936,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -950,7 +950,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
@@ -964,7 +964,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -978,7 +978,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -992,7 +992,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -1100,7 +1100,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1110,7 +1110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -1120,7 +1120,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1130,7 +1130,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1140,7 +1140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1150,7 +1150,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
@@ -1160,7 +1160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
@@ -1170,7 +1170,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
@@ -1180,7 +1180,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -1190,7 +1190,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
@@ -1200,7 +1200,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -1210,7 +1210,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
